--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605675.0154438115</v>
+        <v>470360.6065094827</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1781550.115583401</v>
+        <v>1664213.506290205</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24017313.31977735</v>
+        <v>23879529.32664356</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4670580.551135878</v>
+        <v>4724637.616426027</v>
       </c>
     </row>
     <row r="11">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
     </row>
     <row r="45">
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.51302356503218</v>
       </c>
     </row>
     <row r="46">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.887043131405913</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>19.19936525831539</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>35.51168738522486</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.82400951213433</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>49.59605010302778</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.318167444598751</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>49.59605010302778</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>49.59605010302779</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>17.63048957150822</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.94281169841769</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>50.25513382532716</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>17.96169578549199</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.28372797611831</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>49.59605010302778</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>65.90837222993726</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>90.31173819920292</v>
+        <v>90.24443850190491</v>
       </c>
       <c r="N5" t="n">
-        <v>84.95722325436918</v>
+        <v>84.88883457760923</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>39.50233892697406</v>
+        <v>39.45781263504628</v>
       </c>
       <c r="M6" t="n">
-        <v>17.50199288651834</v>
+        <v>17.45003280400815</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.7872902773006</v>
+        <v>29.73849888737621</v>
       </c>
       <c r="P6" t="n">
-        <v>52.46713803718507</v>
+        <v>52.42797864524584</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>74.04503350661622</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>68.42730627354024</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>84.31378269605858</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>28.74009079028824</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>4.94295693345623</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>17.99414464209616</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>43.00209896284861</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8929,7 +8929,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L14" t="n">
         <v>48.07411698098349</v>
@@ -9646,16 +9646,16 @@
         <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>23.10882897693548</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9877,19 +9877,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>33.92644675979642</v>
       </c>
       <c r="P26" t="n">
         <v>67.78072631241469</v>
@@ -10117,19 +10117,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>64.47562415014559</v>
       </c>
       <c r="M29" t="n">
         <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10354,19 +10354,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>64.47562415014559</v>
       </c>
       <c r="M32" t="n">
         <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10591,19 +10591,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="O35" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10828,19 +10828,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="O38" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11065,16 +11065,16 @@
         <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>22.51867373162197</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939899</v>
       </c>
       <c r="P41" t="n">
         <v>67.78072631241469</v>
@@ -11302,16 +11302,16 @@
         <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>64.5512100384678</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>35.51116967576326</v>
       </c>
       <c r="P44" t="n">
         <v>67.78072631241469</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1859965465589</v>
+        <v>422.1856132717812</v>
       </c>
       <c r="H5" t="n">
-        <v>349.7154090116571</v>
+        <v>349.7114837988406</v>
       </c>
       <c r="I5" t="n">
-        <v>253.493765682094</v>
+        <v>253.4789894812293</v>
       </c>
       <c r="J5" t="n">
-        <v>101.632671480518</v>
+        <v>101.6001415128599</v>
       </c>
       <c r="K5" t="n">
-        <v>58.98091051708468</v>
+        <v>58.93215652808937</v>
       </c>
       <c r="L5" t="n">
-        <v>14.61922505122197</v>
+        <v>14.55874141675068</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9144674394813705</v>
+        <v>0.8498899512915159</v>
       </c>
       <c r="P5" t="n">
-        <v>52.5812779024964</v>
+        <v>52.52616251037935</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.279668409427</v>
+        <v>118.2382790452839</v>
       </c>
       <c r="R5" t="n">
-        <v>209.9994294897338</v>
+        <v>209.9753536054833</v>
       </c>
       <c r="S5" t="n">
-        <v>235.3909722275223</v>
+        <v>235.382238353527</v>
       </c>
       <c r="T5" t="n">
-        <v>219.367403308014</v>
+        <v>219.365725522675</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7892675345237</v>
+        <v>248.7892368725415</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0178692624737</v>
+        <v>161.0176641923887</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7783919771127</v>
+        <v>137.7764114318177</v>
       </c>
       <c r="I6" t="n">
-        <v>117.0507425405837</v>
+        <v>117.0436820135333</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7324700352081</v>
+        <v>81.71309540932351</v>
       </c>
       <c r="K6" t="n">
-        <v>11.50936910144016</v>
+        <v>11.47625477985841</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19706493042543</v>
+        <v>54.17088791395707</v>
       </c>
       <c r="R6" t="n">
-        <v>154.5724836871435</v>
+        <v>154.5597513532676</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0764167058849</v>
+        <v>208.0726076189984</v>
       </c>
       <c r="T6" t="n">
-        <v>230.1069956930864</v>
+        <v>230.1061691167349</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6497454524407</v>
+        <v>249.6497319609877</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2368152776922</v>
+        <v>169.2366433538217</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5992636288474</v>
+        <v>167.5977350693439</v>
       </c>
       <c r="I7" t="n">
-        <v>167.8087252079146</v>
+        <v>167.8035549882441</v>
       </c>
       <c r="J7" t="n">
-        <v>132.4523698397117</v>
+        <v>132.4402148220645</v>
       </c>
       <c r="K7" t="n">
-        <v>87.74709330522369</v>
+        <v>87.72711887735542</v>
       </c>
       <c r="L7" t="n">
-        <v>61.37839771566142</v>
+        <v>61.35283732494487</v>
       </c>
       <c r="M7" t="n">
-        <v>58.02879599051386</v>
+        <v>58.00184614233449</v>
       </c>
       <c r="N7" t="n">
-        <v>45.67761186038953</v>
+        <v>45.65130281936399</v>
       </c>
       <c r="O7" t="n">
-        <v>71.07018916071037</v>
+        <v>71.0458885030816</v>
       </c>
       <c r="P7" t="n">
-        <v>90.14352929744044</v>
+        <v>90.1227358867707</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.8424483830337</v>
+        <v>151.8280521032923</v>
       </c>
       <c r="R7" t="n">
-        <v>221.1628897093868</v>
+        <v>221.1551593869896</v>
       </c>
       <c r="S7" t="n">
-        <v>243.7344203067059</v>
+        <v>243.7314241425257</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0970376225092</v>
+        <v>218.0963030386987</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2197127438696</v>
+        <v>291.219703366204</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0933569378507</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H8" t="n">
-        <v>348.766663618974</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I8" t="n">
-        <v>249.9222771673705</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J8" t="n">
-        <v>93.77000049091893</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>47.19680489086682</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.2595863707439</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.2756328645375</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
-        <v>204.1801566692163</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S8" t="n">
-        <v>233.2799471440838</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9618734208938</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7818563658271</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.968302702022</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H9" t="n">
-        <v>137.2996833538022</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I9" t="n">
-        <v>115.3441745601174</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04951705849162</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>3.505456574455792</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.86993696819729</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
-        <v>151.4950089952352</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S9" t="n">
-        <v>207.155739585213</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9072076709146</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6464844945162</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1952603384582</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H10" t="n">
-        <v>167.229802441839</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I10" t="n">
-        <v>166.5590548534935</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J10" t="n">
-        <v>129.5144356358626</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>82.91916491057385</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
-        <v>55.200311568079</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>51.51487037948515</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>39.31857284105146</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
-        <v>65.19658738606127</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>85.11764828316647</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.3627888804421</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
-        <v>219.2944285325528</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S10" t="n">
-        <v>243.0102310475085</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9194847003273</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2174461108205</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R14" t="n">
         <v>180.0906730958467</v>
@@ -23679,10 +23679,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M16" t="n">
         <v>24.54979951156312</v>
@@ -24214,13 +24214,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>359.9585549362873</v>
+        <v>345.4455313712551</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H23" t="n">
         <v>344.8392336363538</v>
@@ -24262,7 +24262,7 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720376</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>122.2783901714379</v>
       </c>
       <c r="S24" t="n">
         <v>203.3445011265852</v>
@@ -24341,13 +24341,13 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>235.1199618558408</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24466,7 +24466,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>44.74456514246249</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.8628898365198</v>
+        <v>50.38579677903549</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S26" t="n">
         <v>224.5411397984024</v>
@@ -24502,7 +24502,7 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>298.7914184359909</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.0127573810344</v>
+        <v>173.4997338160023</v>
       </c>
       <c r="C27" t="n">
         <v>203.8424276152394</v>
@@ -24572,7 +24572,7 @@
         <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T27" t="n">
         <v>229.0801644257012</v>
@@ -24584,10 +24584,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>213.5559706534787</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24682,10 +24682,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>319.0840959091763</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24739,10 +24739,10 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24806,22 +24806,22 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>138.7554832289223</v>
+        <v>122.2783901714379</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>188.831477561553</v>
       </c>
       <c r="T30" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>345.4455313712551</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H32" t="n">
         <v>344.8392336363538</v>
@@ -24973,7 +24973,7 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720376</v>
       </c>
       <c r="R33" t="n">
         <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T33" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>268.7362331978989</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25165,10 +25165,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H35" t="n">
         <v>344.8392336363538</v>
@@ -25204,10 +25204,10 @@
         <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>202.7701168155668</v>
       </c>
       <c r="U35" t="n">
         <v>248.7511770641198</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720376</v>
       </c>
       <c r="R36" t="n">
         <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691008</v>
       </c>
       <c r="T36" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>235.1199618558408</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H38" t="n">
         <v>344.8392336363538</v>
@@ -25447,13 +25447,13 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>310.8787019142612</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25472,7 +25472,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>203.8424276152394</v>
+        <v>187.3653345577551</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
@@ -25484,7 +25484,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>144.2860237251593</v>
       </c>
       <c r="H39" t="n">
         <v>135.3180193429644</v>
@@ -25523,10 +25523,10 @@
         <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>235.1199618558408</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25642,7 +25642,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>407.1968421014776</v>
       </c>
       <c r="H41" t="n">
         <v>344.8392336363538</v>
@@ -25678,16 +25678,16 @@
         <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T41" t="n">
         <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25709,10 +25709,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>203.8424276152394</v>
+        <v>187.3653345577551</v>
       </c>
       <c r="D42" t="n">
-        <v>172.0989423795122</v>
+        <v>157.58591881448</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
@@ -25721,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>144.2860237251593</v>
       </c>
       <c r="H42" t="n">
         <v>135.3180193429644</v>
@@ -25769,7 +25769,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>348.0792345395789</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25912,10 +25912,10 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>165.5776495308145</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T44" t="n">
         <v>217.2831403805989</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>361.4518833376978</v>
       </c>
     </row>
     <row r="45">
@@ -26003,16 +26003,16 @@
         <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X45" t="n">
-        <v>230.033063710963</v>
+        <v>213.5559706534787</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.8962664135933</v>
+        <v>228.3832428485612</v>
       </c>
     </row>
     <row r="46">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>380912.2510880627</v>
+        <v>380952.9102996759</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>388897.5848436374</v>
+        <v>381488.0171356043</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912324</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>411013.9891573045</v>
+        <v>422453.3221912323</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>141766.1570722572</v>
       </c>
       <c r="C2" t="n">
-        <v>142929.3161369716</v>
+        <v>142948.0005425171</v>
       </c>
       <c r="D2" t="n">
-        <v>146860.6073606446</v>
+        <v>143193.9018459611</v>
       </c>
       <c r="E2" t="n">
-        <v>159251.8460669728</v>
+        <v>159251.8460669727</v>
       </c>
       <c r="F2" t="n">
         <v>159251.8460669728</v>
       </c>
       <c r="G2" t="n">
-        <v>159251.8460669728</v>
+        <v>159251.8460669727</v>
       </c>
       <c r="H2" t="n">
-        <v>159251.8460669728</v>
+        <v>159251.8460669727</v>
       </c>
       <c r="I2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="J2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="K2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="L2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="M2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="N2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="O2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
       <c r="P2" t="n">
-        <v>159251.8460669728</v>
+        <v>163152.4485339593</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>5404.577564794182</v>
+        <v>5491.393996085815</v>
       </c>
       <c r="D3" t="n">
-        <v>19735.29214074444</v>
+        <v>1074.579704107339</v>
       </c>
       <c r="E3" t="n">
-        <v>76639.38691994261</v>
+        <v>94068.42750429735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4381.605062939286</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>23965.70319155299</v>
       </c>
       <c r="C4" t="n">
-        <v>23588.9607456339</v>
+        <v>23582.90894338319</v>
       </c>
       <c r="D4" t="n">
-        <v>21746.066442026</v>
+        <v>23503.2625207016</v>
       </c>
       <c r="E4" t="n">
         <v>12884.37398987268</v>
@@ -26438,28 +26438,28 @@
         <v>12884.37398987268</v>
       </c>
       <c r="I4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="J4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="K4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782462</v>
       </c>
       <c r="L4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="M4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="N4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="O4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
       <c r="P4" t="n">
-        <v>12884.37398987268</v>
+        <v>14584.14025782463</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41242.36126897734</v>
+        <v>41244.43967227775</v>
       </c>
       <c r="D5" t="n">
-        <v>41744.72270709982</v>
+        <v>41271.79307559616</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26490,28 +26490,28 @@
         <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254184.2748699519</v>
+        <v>-270916.1033407691</v>
       </c>
       <c r="C6" t="n">
-        <v>72693.41655756616</v>
+        <v>55956.52163346619</v>
       </c>
       <c r="D6" t="n">
-        <v>63634.5260707743</v>
+        <v>60683.82531342407</v>
       </c>
       <c r="E6" t="n">
-        <v>59531.38515839366</v>
+        <v>26244.80055295749</v>
       </c>
       <c r="F6" t="n">
-        <v>136170.7720783363</v>
+        <v>120313.2280572548</v>
       </c>
       <c r="G6" t="n">
-        <v>136170.7720783363</v>
+        <v>120313.2280572548</v>
       </c>
       <c r="H6" t="n">
-        <v>136170.7720783362</v>
+        <v>120313.2280572548</v>
       </c>
       <c r="I6" t="n">
-        <v>136170.7720783362</v>
+        <v>117325.6820588045</v>
       </c>
       <c r="J6" t="n">
-        <v>136170.7720783362</v>
+        <v>121707.2871217437</v>
       </c>
       <c r="K6" t="n">
-        <v>136170.7720783362</v>
+        <v>121707.2871217437</v>
       </c>
       <c r="L6" t="n">
-        <v>136170.7720783362</v>
+        <v>121707.2871217438</v>
       </c>
       <c r="M6" t="n">
-        <v>136170.7720783363</v>
+        <v>121707.2871217438</v>
       </c>
       <c r="N6" t="n">
-        <v>136170.7720783362</v>
+        <v>121707.2871217438</v>
       </c>
       <c r="O6" t="n">
-        <v>136170.7720783363</v>
+        <v>121707.2871217437</v>
       </c>
       <c r="P6" t="n">
-        <v>136170.7720783363</v>
+        <v>121707.2871217437</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>349.3009756411624</v>
+        <v>349.3963152420985</v>
       </c>
       <c r="D3" t="n">
-        <v>372.3450783073314</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>5.935169881895913</v>
+        <v>6.030509482832033</v>
       </c>
       <c r="D3" t="n">
-        <v>23.04410266616899</v>
+        <v>1.254743271487084</v>
       </c>
       <c r="E3" t="n">
-        <v>95.39345374605597</v>
+        <v>117.0874735398017</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.404225027703164</v>
+        <v>1.404608302480797</v>
       </c>
       <c r="H5" t="n">
-        <v>14.38101956496503</v>
+        <v>14.38494477778147</v>
       </c>
       <c r="I5" t="n">
-        <v>54.13638538052629</v>
+        <v>54.15116158139098</v>
       </c>
       <c r="J5" t="n">
-        <v>119.1818439450216</v>
+        <v>119.2143739126797</v>
       </c>
       <c r="K5" t="n">
-        <v>178.6226893676965</v>
+        <v>178.6714433566918</v>
       </c>
       <c r="L5" t="n">
-        <v>221.5972410592673</v>
+        <v>221.6577246937386</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5696278956834</v>
+        <v>246.6369275929814</v>
       </c>
       <c r="N5" t="n">
-        <v>250.5593822556451</v>
+        <v>250.627770932405</v>
       </c>
       <c r="O5" t="n">
-        <v>236.5961196364217</v>
+        <v>236.6606971246116</v>
       </c>
       <c r="P5" t="n">
-        <v>201.9293142649998</v>
+        <v>201.9844296571169</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.6405054603802</v>
+        <v>151.6818948245233</v>
       </c>
       <c r="R5" t="n">
-        <v>88.20815039645898</v>
+        <v>88.23222628070944</v>
       </c>
       <c r="S5" t="n">
-        <v>31.99877781878589</v>
+        <v>32.00751169278119</v>
       </c>
       <c r="T5" t="n">
-        <v>6.146995058770605</v>
+        <v>6.148672844109692</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1123380022162531</v>
+        <v>0.1123686641984637</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7513266268508021</v>
+        <v>0.7515316969358345</v>
       </c>
       <c r="H6" t="n">
-        <v>7.256233475111696</v>
+        <v>7.258214020406614</v>
       </c>
       <c r="I6" t="n">
-        <v>25.8680439507842</v>
+        <v>25.87510447783466</v>
       </c>
       <c r="J6" t="n">
-        <v>70.98388977628566</v>
+        <v>71.00326440217025</v>
       </c>
       <c r="K6" t="n">
-        <v>121.3227737752894</v>
+        <v>121.3558880968712</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1334415010919</v>
+        <v>163.1779677930197</v>
       </c>
       <c r="M6" t="n">
-        <v>190.3690317244335</v>
+        <v>190.4209918069437</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>178.7597172226994</v>
+        <v>178.8085086126238</v>
       </c>
       <c r="P6" t="n">
-        <v>143.4704328062729</v>
+        <v>143.5095921982121</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.90618485906029</v>
+        <v>95.93236187552864</v>
       </c>
       <c r="R6" t="n">
-        <v>46.64815670921035</v>
+        <v>46.66088904308631</v>
       </c>
       <c r="S6" t="n">
-        <v>13.95556256453134</v>
+        <v>13.9593716514178</v>
       </c>
       <c r="T6" t="n">
-        <v>3.028373552964416</v>
+        <v>3.029200129315929</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04942938334544753</v>
+        <v>0.04944287479841019</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.629887005254555</v>
+        <v>0.6300589291250956</v>
       </c>
       <c r="H7" t="n">
-        <v>5.60026810126323</v>
+        <v>5.601796660766763</v>
       </c>
       <c r="I7" t="n">
-        <v>18.94242012165517</v>
+        <v>18.94759034132561</v>
       </c>
       <c r="J7" t="n">
-        <v>44.53301127149704</v>
+        <v>44.54516628914426</v>
       </c>
       <c r="K7" t="n">
-        <v>73.18141751957465</v>
+        <v>73.20139194744291</v>
       </c>
       <c r="L7" t="n">
-        <v>93.64701894484541</v>
+        <v>93.67257933556196</v>
       </c>
       <c r="M7" t="n">
-        <v>98.73765119640265</v>
+        <v>98.76460104458202</v>
       </c>
       <c r="N7" t="n">
-        <v>96.38989054045393</v>
+        <v>96.41619958147948</v>
       </c>
       <c r="O7" t="n">
-        <v>89.03166506998024</v>
+        <v>89.05596572760901</v>
       </c>
       <c r="P7" t="n">
-        <v>76.18197016278725</v>
+        <v>76.20276357345699</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.74444732181552</v>
+        <v>52.75884360155688</v>
       </c>
       <c r="R7" t="n">
-        <v>28.32201025444571</v>
+        <v>28.32974057684293</v>
       </c>
       <c r="S7" t="n">
-        <v>10.9772126279362</v>
+        <v>10.98020879211644</v>
       </c>
       <c r="T7" t="n">
-        <v>2.691335386087644</v>
+        <v>2.692069969898135</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03435747301388486</v>
+        <v>0.03436685067955071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.496864636411381</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>15.32976495764806</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>57.70787389524983</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
-        <v>127.0445149346206</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4067949939144</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2164661104893</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M8" t="n">
-        <v>262.8363325882701</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>267.089299236474</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
-        <v>252.2048515081583</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>215.2510057967523</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.6445410052697</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>94.02742321697652</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
-        <v>34.10980290222439</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.552524945890824</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1197491709129105</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8008931873025619</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.734942098422112</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>27.57461193125049</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
-        <v>75.66684275300214</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K9" t="n">
-        <v>129.3266863022738</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8956896377778</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9280676774956</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>190.5528628579038</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>152.9354718806094</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.2333128212884</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>49.72563140111873</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
-        <v>14.87623968520328</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.228161575136202</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05269034126990541</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6714419444886303</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
-        <v>5.969729288271644</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
-        <v>20.19209047607627</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>47.47094547534616</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>78.00934591422448</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
-        <v>99.82510509242783</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>105.2515768074314</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>102.748929559792</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
-        <v>94.90526684462934</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>81.20785117706122</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.22410682440704</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
-        <v>30.19047143127968</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S10" t="n">
-        <v>11.70140188713367</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T10" t="n">
-        <v>2.868888308269602</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03662410606301624</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32019,7 +32019,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R14" t="n">
         <v>118.1169067903461</v>
@@ -32028,7 +32028,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U14" t="n">
         <v>0.1504284726201847</v>
@@ -32110,7 +32110,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I16" t="n">
         <v>25.36523055791157</v>
@@ -32159,7 +32159,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L16" t="n">
         <v>125.3999336590344</v>
@@ -32794,16 +32794,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P24" t="n">
         <v>192.1169830994376</v>
@@ -33031,16 +33031,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P27" t="n">
         <v>192.1169830994376</v>
@@ -33268,16 +33268,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P30" t="n">
         <v>192.1169830994376</v>
@@ -33505,16 +33505,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P33" t="n">
         <v>192.1169830994376</v>
@@ -33742,16 +33742,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P36" t="n">
         <v>192.1169830994376</v>
@@ -33979,16 +33979,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P39" t="n">
         <v>192.1169830994376</v>
@@ -34216,16 +34216,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P42" t="n">
         <v>192.1169830994376</v>
@@ -34453,16 +34453,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P45" t="n">
         <v>192.1169830994376</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>14.22662900788174</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.81135192384859</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
